--- a/formatted/candidates/candidates-5/candidates-positions-wanted-second.xlsx
+++ b/formatted/candidates/candidates-5/candidates-positions-wanted-second.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/tcn.migration/formatted/candidates/candidates-5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F626104C-4C3E-1542-B855-1A70737CF309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D8F9D7-B99C-AC49-AD06-01AE5B562B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="7640" windowWidth="48820" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2900" yWindow="7660" windowWidth="48820" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -2914,7 +2914,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B315" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>